--- a/docs/PST1/PST1_20.08.2024_output.xlsx
+++ b/docs/PST1/PST1_20.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1749 +505,2071 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731084519.9839857</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731084523.1272228</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084519.9839857.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084523.1272228.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>267.49</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>265.2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-2.29000000000002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731084523.1272228</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731084523.892726</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084523.1272228.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084523.892726.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>265.2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>264.69</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731084530.614089</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731084533.4400136</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084530.614089.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084533.4400136.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>268.6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>268.48</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731084533.4556625</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731084534.0057383</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084533.4556625.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084534.0057383.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>268.48</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>269.38</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731084544.4406433</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731084546.5845876</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084544.4406433.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731084546.5845876.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>267.37</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>267.4</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.02999999999997272</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731084548.0853004</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731084549.90822</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084548.0853004.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084549.90822.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>267.49</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>265.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-2.29000000000002</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731084550.077606</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731084550.51877</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084550.077606.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084550.51877.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>265.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>264.69</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731084554.2520165</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731084555.8146062</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084554.2520165.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084555.8146062.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>268.6</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>268.48</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731084555.8302276</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731084556.1739702</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084555.8302276.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084556.1739702.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>268.48</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>269.38</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731084561.9597619</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731084562.8556485</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084561.9597619.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084562.8556485.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>267.37</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>267.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.02999999999997272</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731084564.5022433</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731084564.5647557</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084564.5022433.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084564.5647557.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>268.22</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>267.58</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.6400000000000432</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731084570.9753852</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731084571.8389704</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084570.9753852.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084571.8389704.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>265.57</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>265.88</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.3100000000000023</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731084577.4553163</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731084578.9118419</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084577.4553163.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084578.9118419.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>268.38</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>268.49</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.1100000000000136</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731084578.9274626</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731084583.37561</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084578.9274626.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084583.37561.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>268.49</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>267.99</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731084587.4553244</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731084589.8060517</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084587.4553244.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084589.8060517.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>268.07</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>267.7</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.3700000000000045</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731084589.808701</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731084590.5024307</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084589.808701.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731084590.5024307.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>267.7</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>267.31</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731084592.9704382</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731084592.9704382.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731084592.9704382.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>267.45</v>
       </c>
-      <c r="J19" t="n">
-        <v>267.45</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>267.82</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.3700000000000045</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731084597.7207122</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731084598.289302</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084597.7207122.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084598.289302.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>126.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>126.73</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.3299999999999983</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731084598.887834</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731084601.9227643</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084598.887834.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084601.9227643.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>126.43</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>126.25</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731084605.486332</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731084608.8620129</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084605.486332.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084608.8620129.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>126.59</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>127.26</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.6700000000000017</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731084608.880293</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731084609.5211258</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084608.880293.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084609.5211258.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>127.26</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>127.54</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731084625.9680183</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731084627.113809</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084625.9680183.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084627.113809.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>126.26</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>126.15</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731084628.4400792</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731084628.6067996</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084628.4400792.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731084628.6067996.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>126.06</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>126.11</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731084633.949136</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731084642.187614</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084633.949136.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084642.187614.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6121.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6092.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-29</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731084642.2032351</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731084643.2979817</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084642.2032351.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084643.2979817.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6092.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6088</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731084650.820917</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731084651.9657817</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084650.820917.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084651.9657817.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6168.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6151.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>17</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731084651.9814005</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731084653.7517097</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084651.9814005.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084653.7517097.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6151.5</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6170</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>18.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731084654.8206875</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731084655.410058</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084654.8206875.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084655.410058.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6184.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6208</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>23.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731084655.9646726</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731084659.335502</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084655.9646726.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084659.335502.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6195</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6190</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731084664.2503316</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731084667.316687</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084664.2503316.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731084667.316687.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6204</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6199.5</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-4.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731084674.8281226</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731084689.2507956</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084674.8281226.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084689.2507956.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>481.7</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>485.65</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>3.949999999999989</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731084689.2664142</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731084696.798128</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084689.2664142.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084696.798128.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>485.65</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>487.6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.950000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731084696.813749</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731084699.1184235</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084696.813749.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084699.1184235.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>487.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>487.7</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.09999999999996589</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731084699.6165178</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731084704.518385</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084699.6165178.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084704.518385.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>487.65</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>486.95</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.6999999999999886</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731084712.4396794</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731084717.2890415</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084712.4396794.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731084717.2890415.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>486.85</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>486.85</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,4060 +2577,4816 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731084717.3046622</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731084717.3046622.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731084717.3046622.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>486.85</v>
       </c>
-      <c r="J38" t="n">
-        <v>486.85</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="L38" t="n">
+        <v>486.55</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731084720.928033</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731084726.2294774</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084720.928033.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084726.2294774.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>212.64</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>210.32</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-2.319999999999993</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731084726.2450984</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731084734.7037828</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084726.2450984.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084734.7037828.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>210.32</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>212.12</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.800000000000011</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731084746.126397</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731084746.7092617</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084746.126397.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084746.7092617.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>213.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>213.64</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731084753.6263266</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731084758.3928974</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084753.6263266.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731084758.3928974.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>212.94</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>212.25</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.6899999999999977</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731084770.178481</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731084770.8285751</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084770.178481.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084770.8285751.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1017</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1016.2</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731084776.2895103</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731084788.1565204</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084776.2895103.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084788.1565204.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1019.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1029.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-9.600000000000023</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731084788.1721158</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731084790.1735897</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084788.1721158.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084790.1735897.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1029.2</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1028.2</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731084793.3367288</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731084794.1631444</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084793.3367288.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731084794.1631444.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1024.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1025.6</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731084809.6729996</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731084810.6260395</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084809.6729996.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084810.6260395.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>12.167</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>12.145</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.02200000000000024</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731084810.6416612</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731084812.5961728</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084810.6416612.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084812.5961728.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>12.145</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>12.128</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.01699999999999946</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731084812.612146</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731084816.3777695</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084812.612146.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084816.3777695.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>12.128</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>12.164</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.03599999999999959</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731084818.5022185</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731084822.7041502</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084818.5022185.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084822.7041502.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>12.157</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>12.175</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.01800000000000068</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731084824.3588183</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731084825.3606405</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084824.3588183.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084825.3606405.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>12.181</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>12.193</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.01200000000000045</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731084827.6720579</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731084829.0130115</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084827.6720579.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084829.0130115.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>12.213</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>12.22</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.00700000000000145</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731084834.4708807</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731084836.791087</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084834.4708807.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731084836.791087.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>12.223</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>12.23</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.006999999999999673</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731084837.9984574</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731084837.9984574.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731084837.9984574.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>12.225</v>
       </c>
-      <c r="J54" t="n">
-        <v>12.225</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="L54" t="n">
+        <v>12.224</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.0009999999999994458</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731084840.749989</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731084844.0682175</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084840.749989.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084844.0682175.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>125.28</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>124.62</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.6599999999999966</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731084844.083839</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731084844.947389</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084844.083839.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084844.947389.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>124.62</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>124.42</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731084845.4053445</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731084847.014975</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084845.4053445.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084847.014975.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>124.92</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>124.98</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731084849.0369742</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731084864.3410301</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084849.0369742.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084864.3410301.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>124.88</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>124.76</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1199999999999903</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731084864.3570154</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731084873.1258836</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084864.3570154.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084873.1258836.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>124.76</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>124.58</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731084873.1478267</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731084873.1957529</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084873.1478267.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731084873.1957529.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>124.58</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>124.78</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.2000000000000028</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731084877.7193077</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731084881.8313177</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084877.7193077.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084881.8313177.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>156.8</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>156.18</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.6200000000000045</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731084881.8409665</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731084882.6564999</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084881.8409665.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084882.6564999.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>156.18</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>156.1</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731084883.0346928</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731084883.4082212</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084883.0346928.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084883.4082212.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>156.44</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>156.5</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731084889.8846576</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731084891.013817</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084889.8846576.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084891.013817.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>158.34</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>158.1</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731084893.9060185</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731084896.6584566</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084893.9060185.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084896.6584566.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>158.12</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>158.3</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731084898.5477378</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731084900.641494</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084898.5477378.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084900.641494.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>157.76</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>157.5</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731084900.657089</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731084902.1406274</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084900.657089.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731084902.1406274.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>157.5</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>157.34</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731084910.504356</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731084910.6097338</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084910.504356.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084910.6097338.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>47.635</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>47.445</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731084914.469763</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731084917.5324094</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084914.469763.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084917.5324094.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>47.37</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>47.485</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.115000000000002</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731084923.8950157</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731084942.7669528</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084923.8950157.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731084942.7669528.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>47.795</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>47.28</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.5150000000000006</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731084948.7178288</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731084948.7178288.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731084948.7178288.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>47.07</v>
       </c>
-      <c r="J71" t="n">
-        <v>47.07</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
+      <c r="L71" t="n">
+        <v>47.275</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.2049999999999983</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731084953.5624392</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731084955.5966291</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084953.5624392.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084955.5966291.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1347</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1335.6</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>11.40000000000009</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731084955.6125429</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731084958.3851752</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084955.6125429.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084958.3851752.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1335.6</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1335</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.5999999999999091</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731084958.3922205</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731084962.955202</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084958.3922205.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084962.955202.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1335</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1336.8</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731084969.0541506</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731084974.9058776</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084969.0541506.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731084974.9058776.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>1352.4</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>1348</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-4.400000000000091</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731084985.3058689</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731084986.4855542</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084985.3058689.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084986.4855542.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>56.94</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>56.93</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731084991.3120503</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731084993.4700022</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084991.3120503.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084993.4700022.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>56.09</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>55.93</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1600000000000037</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731084993.8916056</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731084994.5072343</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084993.8916056.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084994.5072343.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>56.1</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>56</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731084997.5944846</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731084997.640684</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084997.5944846.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084997.640684.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>56.12</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>56.14</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731084997.7031395</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731085001.670728</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731084997.7031395.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731085001.670728.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>56.13</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>56.45</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.3200000000000003</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731085012.3488362</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731085012.407666</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731085012.3488362.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731085012.407666.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>56.26</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>56.29</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731085015.5634298</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731085017.3034496</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731085015.5634298.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731085017.3034496.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>56.11</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>56.08</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731085017.31907</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731085017.874878</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731085017.31907.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731085017.874878.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>56.08</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>55.93</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731085024.7659416</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731085025.7503927</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085024.7659416.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085025.7503927.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>98.87</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>99.16</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731085029.1924984</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731085029.7014322</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085029.1924984.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085029.7014322.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>99.2</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>99.42</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731085030.5630553</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731085032.0434995</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085030.5630553.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085032.0434995.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>99.25</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>99.43000000000001</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731085035.921771</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731085037.9081001</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085035.921771.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085037.9081001.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>100.12</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>99.8</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.3200000000000074</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731085041.858752</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731085042.503978</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085041.858752.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085042.503978.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>100.12</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>100.41</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731085048.837287</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731085052.7806726</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085048.837287.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085052.7806726.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>99.5</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731085052.9837499</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731085054.4846988</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085052.9837499.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731085054.4846988.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>99.5</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>100.07</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.5699999999999932</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731085055.9100556</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731085059.0792634</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085055.9100556.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085059.0792634.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>51.74</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>51.83</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731085059.095208</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731085059.843233</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085059.095208.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085059.843233.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>51.83</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>51.91</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731085061.7970636</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731085070.812086</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085061.7970636.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085070.812086.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>52.98</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>53.59</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.6100000000000065</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-1.15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731085070.827707</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731085071.5038989</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085070.827707.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085071.5038989.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>53.59</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>53.65</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731085072.8757331</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731085074.4700994</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085072.8757331.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SELG1731085074.4700994.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>53.42</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>53.69</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.269999999999996</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731085078.9211154</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731085078.9211154.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731085078.9211154.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>53.28</v>
       </c>
-      <c r="J96" t="n">
-        <v>53.28</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
+      <c r="L96" t="n">
+        <v>53.89</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.6099999999999994</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731085085.2026522</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731085097.3429577</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731085085.2026522.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731085097.3429577.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>150.08</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>151</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.9199999999999875</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731085097.36178</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731085098.3917837</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731085097.36178.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731085098.3917837.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>151</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>149.88</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>1.120000000000005</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731085098.4074304</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731085099.956747</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731085098.4074304.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731085099.956747.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>149.88</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>150.36</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.4800000000000182</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731085102.7024028</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731085104.312213</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731085102.7024028.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731085104.312213.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>150.02</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>150.1</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731085117.4698682</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731085119.2251778</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731085117.4698682.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731085119.2251778.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>0.2967</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>0.295</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.001700000000000035</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731085120.8272102</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731085120.8272102.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731085120.8272102.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>0.2973</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.2973</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
+      <c r="L102" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-0.005199999999999982</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-1.75</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731085141.9529326</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731085149.5213146</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085141.9529326.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085149.5213146.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>19.156</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>19.21</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.05400000000000205</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731085149.5369084</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731085160.3744762</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085149.5369084.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085160.3744762.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>19.21</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>19.381</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.1709999999999994</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731085160.3904617</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731085161.171209</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085160.3904617.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085161.171209.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>19.381</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>19.459</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.0779999999999994</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731085162.09487</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731085163.7176497</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085162.09487.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085163.7176497.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>19.386</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>19.393</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.00700000000000145</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731085169.0477037</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731085174.1147351</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085169.0477037.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085174.1147351.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>19.38</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>19.368</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-0.01200000000000045</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731085174.1247725</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731085175.5191154</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085174.1247725.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731085175.5191154.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>19.368</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>19.363</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.004999999999999005</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731085176.3834522</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731085176.796143</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731085176.3834522.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731085176.796143.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>668.8</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>667.1</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>1.699999999999932</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731085176.8117685</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731085179.3624644</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731085176.8117685.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731085179.3624644.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>667.1</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>664.5</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-2.600000000000023</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731085181.6246824</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731085184.62482</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731085181.6246824.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731085184.62482.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>663</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>657.55</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>-5.450000000000045</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731085184.6404588</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731085187.0812967</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731085184.6404588.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731085187.0812967.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>657.55</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>661.85</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-4.300000000000068</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731085200.118721</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731085200.118721.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731085200.118721.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>660.35</v>
       </c>
-      <c r="J113" t="n">
-        <v>660.35</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
+      <c r="L113" t="n">
+        <v>659.5</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-0.8500000000000227</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731085205.9636872</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731085210.4731212</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085205.9636872.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085210.4731212.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>142.25</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>138.52</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>-3.72999999999999</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-2.62</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731085210.4887412</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731085212.5563862</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085210.4887412.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085212.5563862.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>138.52</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>138.22</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731085219.9886801</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731085225.1402276</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085219.9886801.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085225.1402276.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>141.66</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>140.65</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>1.009999999999991</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731085225.155822</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731085226.8594098</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085225.155822.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085226.8594098.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>140.65</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>140.62</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731085231.294889</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731085232.6156082</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085231.294889.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085232.6156082.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>139.61</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>139.3</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-0.3100000000000023</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731085232.624322</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731085233.1650262</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085232.624322.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085233.1650262.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>139.3</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>138.64</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>0.660000000000025</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731085235.1778462</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731085235.9053204</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085235.1778462.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731085235.9053204.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>137.78</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>137.47</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731085236.4175928</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731085236.4175928.png</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731085236.4175928.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>137.98</v>
       </c>
-      <c r="J121" t="n">
-        <v>137.98</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
+      <c r="L121" t="n">
+        <v>137.94</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -6307,7 +7400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6331,6 +7424,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6339,11 +7447,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.330000000000098</v>
+        <v>-2.700000000000102</v>
       </c>
       <c r="C2" t="n">
         <v>12</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.2250000000000085</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6352,11 +7469,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.789999999999964</v>
+        <v>-1.749999999999972</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.2187499999999964</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6370,6 +7496,15 @@
       <c r="C4" t="n">
         <v>8</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6378,11 +7513,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01300000000000345</v>
+        <v>0.01200000000000401</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.001500000000000501</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6396,6 +7540,15 @@
       <c r="C6" t="n">
         <v>7</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.001428571428572159</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.01000000000000012</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6409,6 +7562,15 @@
       <c r="C7" t="n">
         <v>7</v>
       </c>
+      <c r="D7" t="n">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4099999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6422,6 +7584,15 @@
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.1085714285714273</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6430,11 +7601,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2700000000000173</v>
+        <v>0.3399999999999821</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.05666666666666368</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6300000000000002</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6443,11 +7623,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.39999999999992</v>
+        <v>1.699999999999932</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.2833333333333219</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6461,6 +7650,15 @@
       <c r="C11" t="n">
         <v>6</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.006499999999999654</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6474,6 +7672,15 @@
       <c r="C12" t="n">
         <v>6</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.1300000000000026</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6487,6 +7694,15 @@
       <c r="C13" t="n">
         <v>6</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6500,6 +7716,15 @@
       <c r="C14" t="n">
         <v>5</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.1580000000000041</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6508,11 +7733,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.6500000000002</v>
+        <v>-11.50000000000023</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
+      <c r="D15" t="n">
+        <v>-2.300000000000046</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6526,6 +7760,15 @@
       <c r="C16" t="n">
         <v>4</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.8475000000000037</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6539,6 +7782,15 @@
       <c r="C17" t="n">
         <v>4</v>
       </c>
+      <c r="D17" t="n">
+        <v>-2.599999999999994</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6547,11 +7799,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5899999999999963</v>
+        <v>0.384999999999998</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.0962499999999995</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6565,6 +7826,15 @@
       <c r="C19" t="n">
         <v>4</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.6499999999999986</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6578,6 +7848,15 @@
       <c r="C20" t="n">
         <v>4</v>
       </c>
+      <c r="D20" t="n">
+        <v>1.150000000000034</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6586,11 +7865,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001700000000000035</v>
+        <v>-0.003499999999999948</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
+      <c r="D21" t="n">
+        <v>-0.001749999999999974</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.59</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6604,6 +7892,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
